--- a/xlsx/Wookieepedia_intext.xlsx
+++ b/xlsx/Wookieepedia_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Wiki</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Wookieepedia</t>
+    <t>政策_政策_维基百科_Wookieepedia</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikia</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>星際大戰</t>
+    <t>星际大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%B6%E7%A9%BA%E4%B8%96%E7%95%8C</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>網絡百科全書</t>
+    <t>网络百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%9A%86%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>克隆戰爭</t>
+    <t>克隆战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Encyclopedia</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E6%88%90%E8%A9%9E</t>
   </si>
   <si>
-    <t>混成詞</t>
+    <t>混成词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%97%9C%E8%AA%9E</t>
   </si>
   <si>
-    <t>雙關語</t>
+    <t>双关语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%98%9F</t>
@@ -113,139 +113,139 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%95%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>阿爾法記憶</t>
+    <t>阿尔法记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>保加利亞語</t>
+    <t>保加利亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9C%B0%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>克羅地亞語</t>
+    <t>克罗地亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>丹麥語</t>
+    <t>丹麦语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>荷蘭語</t>
+    <t>荷兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>芬蘭語</t>
+    <t>芬兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>匈牙利語</t>
+    <t>匈牙利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓國語</t>
+    <t>韩国语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>挪威語</t>
+    <t>挪威语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄語</t>
+    <t>俄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>斯洛文尼亞語</t>
+    <t>斯洛文尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>斯洛伐克語</t>
+    <t>斯洛伐克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E</t>
   </si>
   <si>
-    <t>瑞典語</t>
+    <t>瑞典语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>土耳其語</t>
+    <t>土耳其语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>波蘭語</t>
+    <t>波兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_Times</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E7%9B%A7%E5%8D%A1%E6%96%AF</t>
   </si>
   <si>
-    <t>喬治·盧卡斯</t>
+    <t>乔治·卢卡斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%8D%A1%E6%96%AF%E5%BD%B1%E4%B8%9A</t>
@@ -293,109 +293,109 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>華特迪士尼公司</t>
+    <t>华特迪士尼公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E9%A6%96%E9%83%A8%E6%9B%B2%EF%BC%9A%E5%A8%81%E8%84%85%E6%BD%9B%E4%BC%8F</t>
   </si>
   <si>
-    <t>星際大戰首部曲：威脅潛伏</t>
+    <t>星际大战首部曲：威胁潜伏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E4%BA%8C%E9%83%A8%E6%9B%B2%EF%BC%9A%E8%A4%87%E8%A3%BD%E4%BA%BA%E5%85%A8%E9%9D%A2%E9%80%B2%E6%94%BB</t>
   </si>
   <si>
-    <t>星際大戰二部曲：複製人全面進攻</t>
+    <t>星际大战二部曲：复制人全面进攻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E4%B8%89%E9%83%A8%E6%9B%B2%EF%BC%9A%E8%A5%BF%E6%96%AF%E5%A4%A7%E5%B8%9D%E7%9A%84%E5%BE%A9%E4%BB%87</t>
   </si>
   <si>
-    <t>星際大戰三部曲：西斯大帝的復仇</t>
+    <t>星际大战三部曲：西斯大帝的复仇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E5%9B%9B%E9%83%A8%E6%9B%B2%EF%BC%9A%E6%9B%99%E5%85%89%E4%B9%8D%E7%8F%BE</t>
   </si>
   <si>
-    <t>星際大戰四部曲：曙光乍現</t>
+    <t>星际大战四部曲：曙光乍现</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E4%BA%94%E9%83%A8%E6%9B%B2%EF%BC%9A%E5%B8%9D%E5%9C%8B%E5%A4%A7%E5%8F%8D%E6%93%8A</t>
   </si>
   <si>
-    <t>星際大戰五部曲：帝國大反擊</t>
+    <t>星际大战五部曲：帝国大反击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E5%85%AD%E9%83%A8%E6%9B%B2%EF%BC%9A%E7%B5%95%E5%9C%B0%E5%A4%A7%E5%8F%8D%E6%94%BB</t>
   </si>
   <si>
-    <t>星際大戰六部曲：絕地大反攻</t>
+    <t>星际大战六部曲：绝地大反攻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/STAR_WARS%EF%BC%9A%E5%8E%9F%E5%8A%9B%E8%A6%BA%E9%86%92</t>
   </si>
   <si>
-    <t>STAR WARS：原力覺醒</t>
+    <t>STAR WARS：原力觉醒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/STAR_WARS%EF%BC%9A%E6%9C%80%E5%BE%8C%E7%9A%84%E7%B5%95%E5%9C%B0%E6%AD%A6%E5%A3%AB</t>
   </si>
   <si>
-    <t>STAR WARS：最後的絕地武士</t>
+    <t>STAR WARS：最后的绝地武士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E5%A4%96%E5%82%B3%EF%BC%9A%E4%BF%A0%E7%9B%9C%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>星際大戰外傳：俠盜一號</t>
+    <t>星际大战外传：侠盗一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E5%A4%96%E5%82%B3%EF%BC%9A%E9%9F%93%E7%B4%A2%E7%BE%85</t>
   </si>
   <si>
-    <t>星際大戰外傳：韓索羅</t>
+    <t>星际大战外传：韩索罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%EF%BC%9A%E8%A4%87%E8%A3%BD%E4%BA%BA%E4%B9%8B%E6%88%B0_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>星際大戰：複製人之戰 (電影)</t>
+    <t>星际大战：复制人之战 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%EF%BC%9A%E5%8F%8D%E6%8A%97%E8%BB%8D%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>星際大戰：反抗軍起義</t>
+    <t>星际大战：反抗军起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%EF%BC%9A%E8%88%8A%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>星際大戰：舊共和國</t>
+    <t>星际大战：旧共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E6%98%9F%E5%82%B3%E5%A5%87</t>
   </si>
   <si>
-    <t>魔星傳奇</t>
+    <t>魔星传奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%98%9F%E4%B8%80%E5%B0%8D%E5%AF%B6</t>
   </si>
   <si>
-    <t>外星一對寶</t>
+    <t>外星一对宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%A5%87%E5%85%B5_(%E5%8B%95%E7%95%AB)</t>
   </si>
   <si>
-    <t>小奇兵 (動畫)</t>
+    <t>小奇兵 (动画)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%EF%BC%9A%E8%A4%87%E8%A3%BD%E4%BA%BA%E4%B9%8B%E6%88%B0_(2003%E5%B9%B4%E9%9B%BB%E8%A6%96%E5%BD%B1%E9%9B%86)</t>
   </si>
   <si>
-    <t>星際大戰：複製人之戰 (2003年電視影集)</t>
+    <t>星际大战：复制人之战 (2003年电视影集)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%90%83%E5%A4%A7%E6%88%98%E7%B3%BB%E5%88%97%E5%B0%8F%E8%AF%B4%E5%88%97%E8%A1%A8</t>
@@ -407,31 +407,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%90%83%E5%A4%A7%E6%88%B0%E7%B3%BB%E5%88%97%E9%81%8A%E6%88%B2%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>星球大戰系列遊戲列表</t>
+    <t>星球大战系列游戏列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E4%BA%BA%E7%89%A9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>星際大戰人物列表</t>
+    <t>星际大战人物列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%9C%B0</t>
   </si>
   <si>
-    <t>絕地</t>
+    <t>绝地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%AF_(%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>西斯 (星際大戰)</t>
+    <t>西斯 (星际大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E9%A2%A8%E6%9A%B4%E5%85%B5</t>
   </si>
   <si>
-    <t>帝國風暴兵</t>
+    <t>帝国风暴兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%8A%9B</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E7%89%A9%E7%A8%AE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>星際大戰物種列表</t>
+    <t>星际大战物种列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E6%B2%B3%E5%B8%9D%E5%9C%8B_(%E6%98%9F%E7%90%83%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>銀河帝國 (星球大戰)</t>
+    <t>银河帝国 (星球大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>貿易聯邦</t>
+    <t>贸易联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E6%B2%B3%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>銀河共和國</t>
+    <t>银河共和国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Technology_in_Star_Wars</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B9%B4%E9%B7%B9%E8%99%9F</t>
   </si>
   <si>
-    <t>千年鷹號</t>
+    <t>千年鹰号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X%E7%BF%BC%E6%88%98%E6%9C%BA</t>
@@ -527,25 +527,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%85%E6%98%9F%E8%80%85</t>
   </si>
   <si>
-    <t>滅星者</t>
+    <t>灭星者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0%E6%98%9F%E7%90%83%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>星際大戰星球列表</t>
+    <t>星际大战星球列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%BE%B7%E8%98%AD_(%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>奧德蘭 (星際大戰)</t>
+    <t>奥德兰 (星际大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%96%AF%E5%B9%B3</t>
   </si>
   <si>
-    <t>貝斯平</t>
+    <t>贝斯平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%B4%9B%E6%A1%91</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%9C%96%E5%9B%A0</t>
   </si>
   <si>
-    <t>塔圖因</t>
+    <t>塔图因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%90%83%E5%A4%A7%E6%88%98%E5%B9%B4%E8%A1%A8</t>
@@ -2203,7 +2203,7 @@
         <v>84</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
